--- a/biology/Botanique/Globularia_repens/Globularia_repens.xlsx
+++ b/biology/Botanique/Globularia_repens/Globularia_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Globularia repens
 La Globulaire rampante (Globularia repens) est une toute petite plante gazonnante à fleurs bleues poussant sur les rochers en zone montagneuse méridionale (Alpes, Pyrénées).
@@ -518,19 +530,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace (sous-arbrisseau), orophyte des Pyrénées (jusqu'aux Corbières) et des Alpes du Sud, poussant entre 400 et 2 500 mètres, le plus souvent sur les rochers exposés au soleil. Préférence pour le calcaire.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante vivace (sous-arbrisseau), orophyte des Pyrénées (jusqu'aux Corbières) et des Alpes du Sud, poussant entre 400 et 2 500 mètres, le plus souvent sur les rochers exposés au soleil. Préférence pour le calcaire.
 Floraison : de mai à juillet
 Pollinisation : entomogame
-Dissémination : épizoochore
-Morphologie générale et végétative
-Sous-arbrisseau nain, rampant et généralement très gazonnant. Les feuilles sont toutes disposées en rosette basale. Elles sont très petites, à limbe entier coriace et luisant, rarement entièrement ouvert, de forme spatulée et terminé en pointe, avec une nervure centrale nettement marquée.
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Globularia_repens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Globularia_repens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-arbrisseau nain, rampant et généralement très gazonnant. Les feuilles sont toutes disposées en rosette basale. Elles sont très petites, à limbe entier coriace et luisant, rarement entièrement ouvert, de forme spatulée et terminé en pointe, avec une nervure centrale nettement marquée.
 			Feuilles et capitules
 			Capitules
-Morphologie florale
-Petites fleurs bleues à mauves disposées en capitule simple (1 cm de diamètre) à l'extrémité d'une hampe nue ne dépassant pas 2 cm. Involucre de bractées velues. Calice hérissé. Comme pour toutes les globulaires, ce sont des fleurs irrégulières avec une corolle à deux lèvres : la lèvre supérieure minuscule à deux lobes soudés ; la lèvre inférieure échancrée à trois lobes soudés à la base.
-Fruit et graines
-Le fruit est un petit akène inclus dans le calice persistant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Globularia_repens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Globularia_repens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petites fleurs bleues à mauves disposées en capitule simple (1 cm de diamètre) à l'extrémité d'une hampe nue ne dépassant pas 2 cm. Involucre de bractées velues. Calice hérissé. Comme pour toutes les globulaires, ce sont des fleurs irrégulières avec une corolle à deux lèvres : la lèvre supérieure minuscule à deux lobes soudés ; la lèvre inférieure échancrée à trois lobes soudés à la base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Globularia_repens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Globularia_repens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est un petit akène inclus dans le calice persistant.
 </t>
         </is>
       </c>
